--- a/학습자료/단답형/객관식_국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어3글자_번역.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>消防官
-1. 포물선(parabola)
-2. 소방관
-3. 과학자(Scientist)</t>
+1. 소방관
+2. 세도가(Taoist)
+3. 포물선(parabola)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 소방관</t>
+          <t>1, 소방관</t>
         </is>
       </c>
     </row>
@@ -465,8 +465,8 @@
         <is>
           <t>科學者
 1. 과학자(Scientist)
-2. 연구원
-3. 소방관</t>
+2. 체계적(Systemic)
+3. 유명세</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>硏究員
-1. 체계적(Systemic)
-2. 포물선(parabola)
+1. 유명세
+2. 복불복
 3. 연구원</t>
         </is>
       </c>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>體系的
-1. 포물선(parabola)
-2. 유명세
-3. 체계적(Systemic)</t>
+1. 과학자(Scientist)
+2. 체계적(Systemic)
+3. 소방관</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 체계적(Systemic)</t>
+          <t>2, 체계적(Systemic)</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>抛物線
-1. 체계적(Systemic)
-2. 포물선(parabola)
-3. 세도가(Taoist)</t>
+1. 소방관
+2. 세도가(Taoist)
+3. 포물선(parabola)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 포물선(parabola)</t>
+          <t>3, 포물선(parabola)</t>
         </is>
       </c>
     </row>
@@ -525,8 +525,8 @@
         <is>
           <t>有名稅
 1. 유명세
-2. 체계적(Systemic)
-3. 세도가(Taoist)</t>
+2. 세도가(Taoist)
+3. 체계적(Systemic)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>福不福
-1. 세도가(Taoist)
-2. 복불복
+1. 복불복
+2. 소방관
 3. 연구원</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 복불복</t>
+          <t>1, 복불복</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>勢道家
-1. 세도가(Taoist)
-2. 유명세
-3. 과학자(Scientist)</t>
+1. 연구원
+2. 세도가(Taoist)
+3. 유명세</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 세도가(Taoist)</t>
+          <t>2, 세도가(Taoist)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어3글자_번역.xlsx
@@ -451,7 +451,7 @@
           <t>消防官
 1. 소방관
 2. 세도가(Taoist)
-3. 포물선(parabola)</t>
+3. 체계적(Systemic)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>科學者
-1. 과학자(Scientist)
-2. 체계적(Systemic)
-3. 유명세</t>
+1. 세도가(Taoist)
+2. 소방관
+3. 과학자(Scientist)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 과학자(Scientist)</t>
+          <t>3, 과학자(Scientist)</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>硏究員
-1. 유명세
+1. 연구원
 2. 복불복
-3. 연구원</t>
+3. 세도가(Taoist)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 연구원</t>
+          <t>1, 연구원</t>
         </is>
       </c>
     </row>
@@ -494,9 +494,9 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>體系的
-1. 과학자(Scientist)
+1. 세도가(Taoist)
 2. 체계적(Systemic)
-3. 소방관</t>
+3. 연구원</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -510,7 +510,7 @@
         <is>
           <t>抛物線
 1. 소방관
-2. 세도가(Taoist)
+2. 체계적(Systemic)
 3. 포물선(parabola)</t>
         </is>
       </c>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>有名稅
-1. 유명세
-2. 세도가(Taoist)
-3. 체계적(Systemic)</t>
+1. 과학자(Scientist)
+2. 포물선(parabola)
+3. 유명세</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 유명세</t>
+          <t>3, 유명세</t>
         </is>
       </c>
     </row>
@@ -540,8 +540,8 @@
         <is>
           <t>福不福
 1. 복불복
-2. 소방관
-3. 연구원</t>
+2. 유명세
+3. 포물선(parabola)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>勢道家
-1. 연구원
-2. 세도가(Taoist)
-3. 유명세</t>
+1. 세도가(Taoist)
+2. 유명세
+3. 포물선(parabola)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 세도가(Taoist)</t>
+          <t>1, 세도가(Taoist)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어3글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,140 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>科學者
+1. 세도가(Taoist)
+2. 소방관
+3. 과학자(Scientist)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, 과학자(Scientist)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>體系的
+1. 세도가(Taoist)
+2. 체계적(Systemic)
+3. 연구원</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, 체계적(Systemic)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>福不福
+1. 복불복
+2. 유명세
+3. 포물선(parabola)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1, 복불복</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>硏究員
+1. 연구원
+2. 복불복
+3. 세도가(Taoist)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 연구원</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>抛物線
+1. 소방관
+2. 체계적(Systemic)
+3. 포물선(parabola)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 포물선(parabola)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>有名稅
+1. 과학자(Scientist)
+2. 포물선(parabola)
+3. 유명세</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 유명세</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>勢道家
+1. 세도가(Taoist)
+2. 유명세
+3. 포물선(parabola)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 세도가(Taoist)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>消防官
 1. 소방관
@@ -454,115 +585,13 @@
 3. 체계적(Systemic)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>1, 소방관</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>科學者
-1. 세도가(Taoist)
-2. 소방관
-3. 과학자(Scientist)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, 과학자(Scientist)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>硏究員
-1. 연구원
-2. 복불복
-3. 세도가(Taoist)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1, 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>體系的
-1. 세도가(Taoist)
-2. 체계적(Systemic)
-3. 연구원</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 체계적(Systemic)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>抛物線
-1. 소방관
-2. 체계적(Systemic)
-3. 포물선(parabola)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 포물선(parabola)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>有名稅
-1. 과학자(Scientist)
-2. 포물선(parabola)
-3. 유명세</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3, 유명세</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>福不福
-1. 복불복
-2. 유명세
-3. 포물선(parabola)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 복불복</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>勢道家
-1. 세도가(Taoist)
-2. 유명세
-3. 포물선(parabola)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1, 세도가(Taoist)</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
